--- a/Data/EC/NIT-8904020811.xlsx
+++ b/Data/EC/NIT-8904020811.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE58401-C128-48B1-A731-DA9098B7679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF13AD79-90A3-4152-8222-0E85FEE871C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28DCB254-3791-4B43-9D6C-42F7D1D78803}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2ADCF23C-C18C-43DB-9940-7570AEF677C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,112 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73189271</t>
+  </si>
+  <si>
+    <t>RAUL RUIZ JULIO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1048608557</t>
+  </si>
+  <si>
+    <t>DENIS DEL CARMEN OSPINO MARRUGO</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>98581372</t>
+  </si>
+  <si>
+    <t>ALAIN DE JESUS BAHOQUE VERGARA</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>64524250</t>
   </si>
   <si>
     <t>MARLEYS AGRESOTH BARRAGAN</t>
   </si>
   <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
     <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>73189271</t>
-  </si>
-  <si>
-    <t>RAUL RUIZ JULIO</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>98581372</t>
-  </si>
-  <si>
-    <t>ALAIN DE JESUS BAHOQUE VERGARA</t>
-  </si>
-  <si>
-    <t>1048608557</t>
-  </si>
-  <si>
-    <t>DENIS DEL CARMEN OSPINO MARRUGO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -269,7 +269,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -282,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -484,23 +484,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,10 +528,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDD5CB0-1F5F-8D02-B92A-4217E78ACF66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981378A7-4C22-3C4A-8E88-FD37ACE86370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26468007-52B8-4E87-9927-31EA76E234CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181E116-F98B-4A0A-8545-A92F8CE53673}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1113,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29118</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1136,10 +1136,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1159,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1182,10 +1182,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1205,10 +1205,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1219,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>1</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1271,13 +1271,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1294,13 +1294,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1317,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1334,19 +1334,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>51384</v>
+        <v>48628</v>
       </c>
       <c r="G26" s="18">
-        <v>1</v>
+        <v>1215700</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1363,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1386,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>51384</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1403,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>51384</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1432,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1449,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>17708</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1472,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1501,13 +1501,13 @@
         <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>51384</v>
       </c>
       <c r="G33" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1518,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1547,13 +1547,13 @@
         <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>51384</v>
       </c>
       <c r="G35" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1564,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1593,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>51384</v>
       </c>
       <c r="G37" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1610,19 +1610,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1639,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G39" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1656,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1685,13 +1685,13 @@
         <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G41" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1702,19 +1702,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1731,13 +1731,13 @@
         <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G43" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1748,19 +1748,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
         <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1777,13 +1777,13 @@
         <v>27</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G45" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1794,19 +1794,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1823,13 +1823,13 @@
         <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G47" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1840,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1869,13 +1869,13 @@
         <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G49" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1886,19 +1886,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1915,13 +1915,13 @@
         <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G51" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1932,19 +1932,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1961,13 +1961,13 @@
         <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G53" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1978,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2007,13 +2007,13 @@
         <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G55" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2024,19 +2024,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2053,13 +2053,13 @@
         <v>27</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>51384</v>
       </c>
       <c r="G57" s="18">
-        <v>1</v>
+        <v>1284600</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2070,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>1</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2093,19 +2093,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
-        <v>48628</v>
+        <v>29118</v>
       </c>
       <c r="G59" s="18">
-        <v>1215700</v>
+        <v>1284600</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2116,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="F60" s="24">
-        <v>27578</v>
+        <v>17708</v>
       </c>
       <c r="G60" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
